--- a/biology/Zoologie/Ganglioneura/Ganglioneura.xlsx
+++ b/biology/Zoologie/Ganglioneura/Ganglioneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ganglioneura (ganglioneures) sont une classe de Mollusques, se distinguant par la réduction du nombre de muscles rétracteurs à une ou deux paires (chaque paire pouvant être représentée par un[1] ou deux muscles).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ganglioneura (ganglioneures) sont une classe de Mollusques, se distinguant par la réduction du nombre de muscles rétracteurs à une ou deux paires (chaque paire pouvant être représentée par un ou deux muscles).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ganglioneura sont présents dès le Cambrien (fossiles).
 </t>
@@ -542,9 +556,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ganglioneura se différencient des autres mollusques par une paire de triangles portant les ganglions entourant l'œsophage (les autres mollusques ont un système nerveux sans ganglions)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ganglioneura se différencient des autres mollusques par une paire de triangles portant les ganglions entourant l'œsophage (les autres mollusques ont un système nerveux sans ganglions).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Sous-embranchements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Viscéroconques (Visceroconcha)
 Gastéropodes
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rudolphi, 1812 : Beyträge zur Anthropologie und allgemeinen Naturgeschichte. pp. 1-197 (texte intégral) (de).</t>
         </is>
